--- a/biology/Neurosciences/Joseph_LeDoux/Joseph_LeDoux.xlsx
+++ b/biology/Neurosciences/Joseph_LeDoux/Joseph_LeDoux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joseph E. LeDoux (1949) est un psychologue, professeur de sciences à l'Université de New York, et directeur du Center for the Neuroscience of Fear and Anxiety (centre de neurosciences sur la peur et l'anxiété).
 Ses recherches sont axées sur le lien entre mémoire et émotion, en particulier sur les mécanismes de la peur.
